--- a/pred_ohlcv/54_21/2020-01-13 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ARN ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>121669.93340243</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>123084.78750243</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>123081.78750243</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>167548.40207661</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>167548.40207661</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>168445.8503766099</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>168445.8503766099</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>168434.8503766099</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>168434.8503766099</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>168423.8484766099</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>163613.94617661</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>150658.33477661</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>154042.19897661</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>154563.74237661</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>154550.74237661</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>153896.70417661</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>147364.1402766099</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>147364.1402766099</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>147455.1402766099</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>147455.1402766099</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>142976.4648766099</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>143446.9232766099</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>143446.9232766099</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>144426.7417766099</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>144426.7417766099</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>144426.7417766099</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>148012.3038766099</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>125847.2063766099</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>126360.6817766099</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>125099.1961766099</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>125109.2355766099</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>121567.0524766099</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>119897.3047766099</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>119941.2265766099</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>119502.2265766099</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>130412.2265766099</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>130412.2265766099</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>137103.6629766099</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>134153.8817766099</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>120679.2119766099</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>113517.5959766099</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>113775.7559766099</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>113775.7559766099</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>113763.7559766099</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>115387.3228766099</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>122008.2044766099</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>122008.2044766099</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>121996.2044766099</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>122006.2044766099</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>122062.2044766099</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>122062.2044766099</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>121735.9561766099</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>121735.9561766099</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>121353.5650766099</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>110748.5018766099</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>110534.4247766099</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>110531.3775766099</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>114366.5993766099</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>115164.6707766099</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>115141.9707766099</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>115168.0069766099</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>115161.0069766099</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>114832.1533766099</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>114788.3767766099</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>108026.5987766099</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>145751.1204766099</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>184224.6395766099</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>331271.53193081</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>323971.88505867</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>328925.3646117499</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>277841.11073622</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>285759.41655472</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>284994.8670306799</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>283769.9845306799</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>284913.7643306799</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>314530.49576402</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>313039.7283640199</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>308425.10986402</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>308447.63346402</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>308450.13346402</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>306987.35497981</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>303588.05848524</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>303588.05848524</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>308820.00969067</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>309134.00969067</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>304556.20989067</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>307195.59359067</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>307195.59359067</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>309317.2551351101</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>310320.2551351101</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>313110.0014351101</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>311135.6975351101</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>306210.7874351101</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>304858.1453351101</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>294844.7021351101</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>294918.4422232101</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>347618.3714213001</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>378577.5902634301</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>357365.8184634301</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>355893.4693634301</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>356312.2425341601</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>356630.2425341601</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>348054.9151341601</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>347564.3812341601</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>363958.8306341601</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>358237.9396341601</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>357922.2777341601</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>358088.64853416</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>357705.0900341601</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>357707.19003416</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>348978.1082017301</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>348609.6784017301</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>348436.8914017301</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>348137.6061017301</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>348150.7104495501</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>347126.9691495501</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>345816.94404955</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>352522.11514955</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>353422.69695555</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>353433.19051778</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>353421.19051778</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>354105.24691778</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>360186.83461778</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>360174.83461778</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>360184.28073199</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>355462.50663199</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>355462.50663199</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>353921.62034924</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>353960.04707337</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>353460.04707337</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>353460.04707337</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>353460.04707337</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>353371.94127337</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>350928.82437337</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>351137.06037337</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>351512.03757337</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>352296.3543733699</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>352296.3543733699</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>352306.10918948</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>352262.13378948</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>352207.10468948</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>334480.8916879999</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ARN ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>121669.93340243</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>123084.78750243</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>123081.78750243</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>121735.9561766099</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>121735.9561766099</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>121353.5650766099</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>110748.5018766099</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>110534.4247766099</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>110531.3775766099</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>114366.5993766099</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>115164.6707766099</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>115141.9707766099</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>115168.0069766099</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>115161.0069766099</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>114832.1533766099</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>114788.3767766099</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>108026.5987766099</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>145751.1204766099</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>184224.6395766099</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>193239.85237661</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>190319.27657661</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>329043.15982081</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>331271.53193081</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>323971.88505867</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>328925.3646117499</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>277841.11073622</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>285759.41655472</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>281151.6599306799</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>308425.10986402</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>308447.63346402</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>308450.13346402</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>306987.35497981</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>303588.05848524</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>309134.00969067</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>304556.20989067</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>378577.5902634301</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>357365.8184634301</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>355893.4693634301</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>356312.2425341601</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>356630.2425341601</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>348054.9151341601</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>347564.3812341601</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>363958.8306341601</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>358237.9396341601</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>357922.2777341601</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>358088.64853416</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>357705.0900341601</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>357707.19003416</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>348978.1082017301</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>348436.8914017301</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>348137.6061017301</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>348150.7104495501</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>347126.9691495501</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>345816.94404955</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>352522.11514955</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>353422.69695555</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>353433.19051778</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>353421.19051778</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>354105.24691778</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>360186.83461778</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>360174.83461778</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>360184.28073199</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>355462.50663199</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>355462.50663199</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>353921.62034924</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>353960.04707337</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>353460.04707337</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>353460.04707337</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
